--- a/covidhk_imported.xlsx
+++ b/covidhk_imported.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="4">
   <si>
     <t>Classification</t>
   </si>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C419"/>
+  <dimension ref="A1:C425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5004,6 +5004,72 @@
         <v>3</v>
       </c>
     </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B420" t="s">
+        <v>3</v>
+      </c>
+      <c r="C420">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B421" t="s">
+        <v>3</v>
+      </c>
+      <c r="C421">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B422" t="s">
+        <v>3</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B423" t="s">
+        <v>3</v>
+      </c>
+      <c r="C423">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B424" t="s">
+        <v>3</v>
+      </c>
+      <c r="C424">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B425" t="s">
+        <v>3</v>
+      </c>
+      <c r="C425">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
